--- a/uploads/po/普通销售订单/BJ105/AP623003P_20200525_Bump_Prod.xlsx
+++ b/uploads/po/普通销售订单/BJ105/AP623003P_20200525_Bump_Prod.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>日期</t>
   </si>
@@ -99,19 +99,16 @@
     <t>AP623003P</t>
   </si>
   <si>
-    <t>0080110</t>
-  </si>
-  <si>
-    <t>#1~3</t>
+    <t>TW80110</t>
+  </si>
+  <si>
+    <t>#1 #2 # 3 10-25</t>
   </si>
   <si>
     <t>TSHT</t>
   </si>
   <si>
     <t>SF</t>
-  </si>
-  <si>
-    <t>#5~20</t>
   </si>
   <si>
     <r>
@@ -2200,6 +2197,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3475990" y="2466975"/>
+          <a:ext cx="1711960" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>wwewewf</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2489,13 +2548,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14.2666666666667" customWidth="1"/>
     <col min="2" max="2" width="19.725" customWidth="1"/>
@@ -2607,7 +2666,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="6">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>29</v>
@@ -2627,56 +2686,11 @@
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:22">
-      <c r="A3" s="5">
-        <v>43976</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="6">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2699,228 +2713,228 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" ht="15" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" ht="27.75" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:4">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" ht="85.5" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" ht="41.25" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/po/普通销售订单/BJ105/AP623003P_20200525_Bump_Prod.xlsx
+++ b/uploads/po/普通销售订单/BJ105/AP623003P_20200525_Bump_Prod.xlsx
@@ -2197,68 +2197,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3475990" y="2466975"/>
-          <a:ext cx="1711960" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>wwewewf</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2551,7 +2489,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2690,7 +2628,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
